--- a/_pythonscripts/all-members.xlsx
+++ b/_pythonscripts/all-members.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_5619E548D269D40E62355476585DCE3A87470326" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DE8408-5D40-4338-A547-627AA76595B1}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BA673C-AA6F-49C0-BD97-52A0E72B711C}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
+  <si>
+    <t>foldername</t>
+  </si>
   <si>
     <t>ApplicationID</t>
   </si>
@@ -37,9 +40,6 @@
     <t>BSc Instituton</t>
   </si>
   <si>
-    <t>foldername</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -52,40 +52,43 @@
     <t>thesis-title</t>
   </si>
   <si>
+    <t>0421062341-Purbayan-Das</t>
+  </si>
+  <si>
     <t>0421062341</t>
   </si>
   <si>
     <t>Purbayan Das</t>
   </si>
   <si>
-    <t>0421062341-Purbayan-Das</t>
-  </si>
-  <si>
     <t>Masters Student</t>
   </si>
   <si>
     <t>Grad Students</t>
   </si>
   <si>
+    <t>0421062344-Ayon-Sarker</t>
+  </si>
+  <si>
     <t>0421062344</t>
   </si>
   <si>
     <t>Ayon Sarkar</t>
   </si>
   <si>
-    <t>0421062344-Ayon-Sarker</t>
-  </si>
-  <si>
     <t>Design of Dual-band Plasmonic Absorber for Biomedical Sensing and Environmental Monitoring</t>
   </si>
   <si>
+    <t>0421062347-Puja-Das</t>
+  </si>
+  <si>
     <t>0421062347</t>
   </si>
   <si>
     <t>Puja Das</t>
   </si>
   <si>
-    <t>0421062347-Puja-Das</t>
+    <t>0422062304-Asif-Hossain-Bhuiyan</t>
   </si>
   <si>
     <t>0422062304</t>
@@ -94,31 +97,31 @@
     <t>Md Asif Hossain Bhuiyan</t>
   </si>
   <si>
-    <t>0422062304-Asif-Hossain-Bhuiyan</t>
-  </si>
-  <si>
     <t>Polarization Insensitive Electrically Reconfigurable Metasurface For Metalensing At Near Infrared Waveband</t>
   </si>
   <si>
+    <t>0422062353-Soikot</t>
+  </si>
+  <si>
     <t>0422062353</t>
   </si>
   <si>
     <t>Soikot Sarkar</t>
   </si>
   <si>
-    <t>0422062353-Soikot</t>
-  </si>
-  <si>
     <t>Hybrid Metal-Dielectric Nanostructures Integrated Heterojunction Thin Film Solar Cell for Efficiency</t>
   </si>
   <si>
+    <t>0423062319-mesbah</t>
+  </si>
+  <si>
     <t>0423062319</t>
   </si>
   <si>
     <t>Md. Mesbah Uddin</t>
   </si>
   <si>
-    <t>0423062319-mesbah</t>
+    <t>0423062522-Abu-Md-Raihan</t>
   </si>
   <si>
     <t>0423062522</t>
@@ -127,7 +130,7 @@
     <t>Abu Md. Raihan</t>
   </si>
   <si>
-    <t>0423062522-Abu-Md-Raihan</t>
+    <t>0424062139-Zaheer-Al-Jamee</t>
   </si>
   <si>
     <t>0424062139</t>
@@ -136,13 +139,10 @@
     <t>Zaheer Al Jamee</t>
   </si>
   <si>
-    <t>Power</t>
-  </si>
-  <si>
     <t>RUET</t>
   </si>
   <si>
-    <t>0424062139-Zaheer-Al-Jamee</t>
+    <t>0424062324-Shahriar-shakil</t>
   </si>
   <si>
     <t>0424062324</t>
@@ -151,7 +151,7 @@
     <t>Md Al Shahriar Shakil</t>
   </si>
   <si>
-    <t>0424062324-Shahriar-shakil</t>
+    <t>0424062379-Naved-Sadat-Yamin</t>
   </si>
   <si>
     <t>0424062379</t>
@@ -160,7 +160,7 @@
     <t>Naved Sadat Yamin</t>
   </si>
   <si>
-    <t>0424062379-Naved-Sadat-Yamin</t>
+    <t>0424062380-Jayed-Hasan-Rakib</t>
   </si>
   <si>
     <t>0424062380</t>
@@ -169,7 +169,7 @@
     <t>Jayed Hasan Rakib</t>
   </si>
   <si>
-    <t>0424062380-Jayed-Hasan-Rakib</t>
+    <t>0424062385-Md-Shahinul-Islam</t>
   </si>
   <si>
     <t>0424062385</t>
@@ -178,7 +178,7 @@
     <t>Md. Shahinul Islam</t>
   </si>
   <si>
-    <t>0424062385-Md-Shahinul-Islam</t>
+    <t>1024062129-Md-Tasrif-Prodhan</t>
   </si>
   <si>
     <t>1024062129</t>
@@ -193,7 +193,7 @@
     <t>DU</t>
   </si>
   <si>
-    <t>1024062129-Md-Tasrif-Prodhan</t>
+    <t>1024062144-Tanvir-Ahmed</t>
   </si>
   <si>
     <t>1024062144</t>
@@ -202,7 +202,7 @@
     <t>Tanvir Ahmed</t>
   </si>
   <si>
-    <t>1024062144-Tanvir-Ahmed</t>
+    <t>1024062303-Md-Emad-Hossain-Likhon</t>
   </si>
   <si>
     <t>1024062303</t>
@@ -214,7 +214,7 @@
     <t>EP</t>
   </si>
   <si>
-    <t>1024062303-Md-Emad-Hossain-Likhon</t>
+    <t>1024062333-Dipika-Rani-Nath</t>
   </si>
   <si>
     <t>1024062333</t>
@@ -226,7 +226,7 @@
     <t>BUET</t>
   </si>
   <si>
-    <t>1024062333-Dipika-Rani-Nath</t>
+    <t>1024062339-Subhan-Zawad-Bihan</t>
   </si>
   <si>
     <t>1024062339</t>
@@ -235,7 +235,7 @@
     <t>Subhan Zawad Bihan</t>
   </si>
   <si>
-    <t>1024062339-Subhan-Zawad-Bihan</t>
+    <t>1024062371-Farzana-Yesmin</t>
   </si>
   <si>
     <t>1024062371</t>
@@ -244,7 +244,7 @@
     <t>Farzana Yesmin</t>
   </si>
   <si>
-    <t>1024062371-Farzana-Yesmin</t>
+    <t>1024062374-Junayet-Hossaain</t>
   </si>
   <si>
     <t>1024062374</t>
@@ -253,7 +253,7 @@
     <t>Junayet Hossaain</t>
   </si>
   <si>
-    <t>1024062374-Junayet-Hossaain</t>
+    <t>1024062377-Ramisa-Tahsin-Shreya</t>
   </si>
   <si>
     <t>1024062377</t>
@@ -262,7 +262,7 @@
     <t>Ramisa Tahsin Shreya</t>
   </si>
   <si>
-    <t>1024062377-Ramisa-Tahsin-Shreya</t>
+    <t>1024062404-Bokhtiar-Foysol-Himon</t>
   </si>
   <si>
     <t>1024062404</t>
@@ -271,7 +271,7 @@
     <t>Bokhtiar Foysol Himon</t>
   </si>
   <si>
-    <t>1024062404-Bokhtiar-Foysol-Himon</t>
+    <t>1024062406-Md-Tarique-Habibullah</t>
   </si>
   <si>
     <t>1024062406</t>
@@ -280,67 +280,49 @@
     <t>Md Tarique Habibullah</t>
   </si>
   <si>
-    <t>1024062406-Md-Tarique-Habibullah</t>
-  </si>
-  <si>
-    <t>Sikder</t>
+    <t>20-azim-sikder</t>
   </si>
   <si>
     <t>Md. Azim Sikder</t>
   </si>
   <si>
-    <t>20-azim-sikder</t>
-  </si>
-  <si>
     <t>UG Student</t>
   </si>
   <si>
     <t>Undergrad Students</t>
   </si>
   <si>
-    <t>Solaiman</t>
+    <t>20-md-solaiman</t>
   </si>
   <si>
     <t>Md. Solaiman</t>
   </si>
   <si>
-    <t>20-md-solaiman</t>
-  </si>
-  <si>
-    <t>Tasfia</t>
+    <t>20-meherin-tasfia</t>
   </si>
   <si>
     <t>Meherin Tasfia</t>
   </si>
   <si>
-    <t>20-meherin-tasfia</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
+    <t>20-nafis-ahmed</t>
   </si>
   <si>
     <t>Nafis Ahmed</t>
   </si>
   <si>
-    <t>20-nafis-ahmed</t>
-  </si>
-  <si>
-    <t>Imam</t>
+    <t>20-sakif-imam</t>
   </si>
   <si>
     <t>Md. Sakif Imam</t>
   </si>
   <si>
-    <t>20-sakif-imam</t>
-  </si>
-  <si>
-    <t>Islam</t>
+    <t>20-tanvirul-islam</t>
   </si>
   <si>
     <t>Md. Tanvirul Islam</t>
   </si>
   <si>
-    <t>20-tanvirul-islam</t>
+    <t>A-0421062305-Md-Mahfuzul-Haque</t>
   </si>
   <si>
     <t>0421062305</t>
@@ -349,55 +331,67 @@
     <t>Md. Mahfuzul Haque</t>
   </si>
   <si>
-    <t>A-0421062305-Md-Mahfuzul-Haque</t>
-  </si>
-  <si>
     <t>Graduated with MSc (Jan 2025)</t>
   </si>
   <si>
     <t>Alumni</t>
   </si>
   <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>Design Of Silicon-carbide Based Single-quantum-well White LED</t>
   </si>
   <si>
+    <t>A-0421062320-Shamima-Mitu</t>
+  </si>
+  <si>
     <t>0421062320</t>
   </si>
   <si>
     <t>Shamima Akter Mitu</t>
   </si>
   <si>
-    <t>A-0421062320-Shamima-Mitu</t>
-  </si>
-  <si>
     <t>Graduated with MSc (May 2023)</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
     <t>Design of an All-optical Plasmonic Modulator for Two Micrometer Waveband</t>
   </si>
   <si>
+    <t>A-0422062302-Md-Ehsanul-Karim</t>
+  </si>
+  <si>
     <t>0422062302</t>
   </si>
   <si>
     <t>Md. Ehsanul Karim</t>
   </si>
   <si>
-    <t>A-0422062302-Md-Ehsanul-Karim</t>
-  </si>
-  <si>
     <t>Graduated with MSc (June 2024)</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>Phase Change Material Based Broadband Multifunctional Metasurface for the Visible Range</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Choudhury</t>
+  </si>
+  <si>
+    <t>Dr. Sajid Muhaimin Choudhury</t>
+  </si>
+  <si>
+    <t>Associate Professor</t>
+  </si>
+  <si>
+    <t>Principal Investigator</t>
+  </si>
+  <si>
+    <t>MIST</t>
+  </si>
+  <si>
+    <t>SUST</t>
+  </si>
+  <si>
+    <t>CSP</t>
   </si>
 </sst>
 </file>
@@ -760,18 +754,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33:I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.3828125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4609375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.84375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
@@ -807,14 +805,20 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -824,14 +828,20 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -844,14 +854,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -861,14 +877,20 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -881,14 +903,20 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
       </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -901,14 +929,20 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
       <c r="C7" t="s">
         <v>31</v>
       </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>121</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -918,14 +952,20 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>34</v>
       </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>123</v>
+      </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -935,7 +975,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
@@ -945,485 +985,580 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
         <v>39</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>40</v>
       </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
       <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
       <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>49</v>
       </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
       <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>53</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>55</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>56</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>55</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>60</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>64</v>
       </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>68</v>
       </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>71</v>
       </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
-        <v>63</v>
-      </c>
       <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
         <v>39</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>74</v>
       </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
-        <v>63</v>
-      </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>80</v>
       </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
-        <v>63</v>
-      </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>83</v>
       </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>84</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>85</v>
       </c>
-      <c r="D23" t="s">
-        <v>63</v>
-      </c>
       <c r="E23" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>86</v>
       </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B24" t="s">
+      <c r="C24">
+        <v>2006022</v>
+      </c>
+      <c r="D24" t="s">
         <v>87</v>
       </c>
-      <c r="C24" t="s">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" t="s">
         <v>88</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>89</v>
       </c>
-      <c r="G24" t="s">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>90</v>
       </c>
-      <c r="H24" t="s">
+      <c r="C25">
+        <v>2006008</v>
+      </c>
+      <c r="D25" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B25" t="s">
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>92</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26">
+        <v>2006175</v>
+      </c>
+      <c r="D26" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
+      <c r="E26" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" t="s">
+        <v>88</v>
+      </c>
+      <c r="H26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>94</v>
       </c>
-      <c r="G25" t="s">
-        <v>90</v>
-      </c>
-      <c r="H25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
+      <c r="C27">
+        <v>2006192</v>
+      </c>
+      <c r="D27" t="s">
         <v>95</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E27" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="F26" t="s">
+      <c r="C28">
+        <v>2006173</v>
+      </c>
+      <c r="D28" t="s">
         <v>97</v>
       </c>
-      <c r="G26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B27" t="s">
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" t="s">
+        <v>88</v>
+      </c>
+      <c r="H28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>98</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C29">
+        <v>2006095</v>
+      </c>
+      <c r="D29" t="s">
         <v>99</v>
       </c>
-      <c r="F27" t="s">
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>100</v>
       </c>
-      <c r="G27" t="s">
-        <v>90</v>
-      </c>
-      <c r="H27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+      <c r="C30" t="s">
         <v>101</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="F28" t="s">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" t="s">
         <v>103</v>
       </c>
-      <c r="G28" t="s">
-        <v>90</v>
-      </c>
-      <c r="H28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B29" t="s">
+      <c r="H30" t="s">
         <v>104</v>
       </c>
-      <c r="C29" t="s">
+      <c r="I30">
+        <v>2025</v>
+      </c>
+      <c r="J30" t="s">
         <v>105</v>
       </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>106</v>
       </c>
-      <c r="G29" t="s">
-        <v>90</v>
-      </c>
-      <c r="H29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>107</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" t="s">
         <v>108</v>
       </c>
-      <c r="F30" t="s">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" t="s">
         <v>109</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31">
+        <v>2023</v>
+      </c>
+      <c r="J31" t="s">
         <v>110</v>
       </c>
-      <c r="H30" t="s">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>111</v>
       </c>
-      <c r="I30" t="s">
+      <c r="C32" t="s">
         <v>112</v>
       </c>
-      <c r="J30" t="s">
+      <c r="D32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B31" t="s">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" t="s">
         <v>114</v>
       </c>
-      <c r="C31" t="s">
+      <c r="H32" t="s">
+        <v>104</v>
+      </c>
+      <c r="I32">
+        <v>2024</v>
+      </c>
+      <c r="J32" t="s">
         <v>115</v>
       </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
         <v>116</v>
       </c>
-      <c r="G31" t="s">
+      <c r="C33" t="s">
         <v>117</v>
       </c>
-      <c r="H31" t="s">
-        <v>111</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="D33" t="s">
         <v>118</v>
       </c>
-      <c r="J31" t="s">
+      <c r="G33" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
+      <c r="H33" t="s">
         <v>120</v>
-      </c>
-      <c r="C32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" t="s">
-        <v>122</v>
-      </c>
-      <c r="G32" t="s">
-        <v>123</v>
-      </c>
-      <c r="H32" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/_pythonscripts/all-members.xlsx
+++ b/_pythonscripts/all-members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8BA673C-AA6F-49C0-BD97-52A0E72B711C}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ED164F-9484-4B69-9A4D-F275C0C4DF8A}"/>
   <bookViews>
     <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="139">
   <si>
     <t>foldername</t>
   </si>
@@ -73,9 +73,6 @@
     <t>0421062344</t>
   </si>
   <si>
-    <t>Ayon Sarkar</t>
-  </si>
-  <si>
     <t>Design of Dual-band Plasmonic Absorber for Biomedical Sensing and Environmental Monitoring</t>
   </si>
   <si>
@@ -392,6 +389,54 @@
   </si>
   <si>
     <t>CSP</t>
+  </si>
+  <si>
+    <t>Ayon Sarker</t>
+  </si>
+  <si>
+    <t>2021 April</t>
+  </si>
+  <si>
+    <t>2022 April</t>
+  </si>
+  <si>
+    <t>2023 April</t>
+  </si>
+  <si>
+    <t>2024 April</t>
+  </si>
+  <si>
+    <t>2024 October</t>
+  </si>
+  <si>
+    <t>first_enrollment</t>
+  </si>
+  <si>
+    <t>degree_sought</t>
+  </si>
+  <si>
+    <t>M.Sc. Engg.</t>
+  </si>
+  <si>
+    <t>B.Sc. Engg.</t>
+  </si>
+  <si>
+    <t>thesis_approval</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Thesis Defended and Accepted</t>
+  </si>
+  <si>
+    <t>CASR Approved Proposal and BoE</t>
+  </si>
+  <si>
+    <t>BPGS Approved Proposal and BoE</t>
   </si>
 </sst>
 </file>
@@ -754,10 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -769,10 +817,12 @@
     <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.84375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.23046875" customWidth="1"/>
+    <col min="11" max="11" width="28.69140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.61328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -798,13 +848,22 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -815,10 +874,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -826,8 +885,17 @@
       <c r="H2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -835,730 +903,1000 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" t="s">
+        <v>131</v>
+      </c>
+      <c r="K8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>127</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+      <c r="K11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>128</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>63</v>
       </c>
-      <c r="F3" t="s">
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>128</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>123</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+      <c r="K19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>73</v>
       </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" t="s">
-        <v>39</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>128</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>128</v>
+      </c>
+      <c r="J21" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
         <v>79</v>
       </c>
-      <c r="E21" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>128</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+      <c r="K22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>82</v>
       </c>
-      <c r="E22" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23">
+        <v>2020</v>
+      </c>
+      <c r="J23" t="s">
+        <v>132</v>
+      </c>
+      <c r="K23" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>86</v>
       </c>
       <c r="C24">
         <v>2006022</v>
       </c>
       <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" t="s">
         <v>87</v>
       </c>
-      <c r="E24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>88</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24">
+        <v>2020</v>
+      </c>
+      <c r="J24" t="s">
+        <v>132</v>
+      </c>
+      <c r="K24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>90</v>
       </c>
       <c r="C25">
         <v>2006008</v>
       </c>
       <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G25" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25">
+        <v>2020</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+      <c r="K25" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>91</v>
-      </c>
-      <c r="E25" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" t="s">
-        <v>88</v>
-      </c>
-      <c r="H25" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>92</v>
       </c>
       <c r="C26">
         <v>2006175</v>
       </c>
       <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26">
+        <v>2020</v>
+      </c>
+      <c r="J26" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>93</v>
-      </c>
-      <c r="E26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" t="s">
-        <v>88</v>
-      </c>
-      <c r="H26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>94</v>
       </c>
       <c r="C27">
         <v>2006192</v>
       </c>
       <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G27" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27">
+        <v>2020</v>
+      </c>
+      <c r="J27" t="s">
+        <v>132</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" t="s">
-        <v>123</v>
-      </c>
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" t="s">
-        <v>88</v>
-      </c>
-      <c r="H27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>96</v>
       </c>
       <c r="C28">
         <v>2006173</v>
       </c>
       <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+      <c r="G28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28">
+        <v>2020</v>
+      </c>
+      <c r="J28" t="s">
+        <v>132</v>
+      </c>
+      <c r="K28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
         <v>97</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" t="s">
-        <v>88</v>
-      </c>
-      <c r="H28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>98</v>
       </c>
       <c r="C29">
         <v>2006095</v>
       </c>
       <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>87</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29">
+        <v>2020</v>
+      </c>
+      <c r="J29" t="s">
+        <v>132</v>
+      </c>
+      <c r="K29" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
         <v>99</v>
       </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" t="s">
-        <v>88</v>
-      </c>
-      <c r="H29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
         <v>100</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>101</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" t="s">
         <v>102</v>
       </c>
-      <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>103</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30" t="s">
+        <v>136</v>
+      </c>
+      <c r="L30">
+        <v>2025</v>
+      </c>
+      <c r="M30" t="s">
         <v>104</v>
       </c>
-      <c r="I30">
-        <v>2025</v>
-      </c>
-      <c r="J30" t="s">
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
         <v>106</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>107</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
         <v>108</v>
       </c>
-      <c r="E31" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" t="s">
+        <v>124</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+      <c r="K31" t="s">
+        <v>136</v>
+      </c>
+      <c r="L31">
+        <v>2023</v>
+      </c>
+      <c r="M31" t="s">
         <v>109</v>
       </c>
-      <c r="H31" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31">
-        <v>2023</v>
-      </c>
-      <c r="J31" t="s">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
         <v>111</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>112</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
         <v>113</v>
       </c>
-      <c r="E32" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" t="s">
+        <v>125</v>
+      </c>
+      <c r="J32" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" t="s">
+        <v>136</v>
+      </c>
+      <c r="L32">
+        <v>2024</v>
+      </c>
+      <c r="M32" t="s">
         <v>114</v>
-      </c>
-      <c r="H32" t="s">
-        <v>104</v>
-      </c>
-      <c r="I32">
-        <v>2024</v>
-      </c>
-      <c r="J32" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
         <v>116</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>117</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>118</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>119</v>
-      </c>
-      <c r="H33" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/_pythonscripts/all-members.xlsx
+++ b/_pythonscripts/all-members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6ED164F-9484-4B69-9A4D-F275C0C4DF8A}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A389D8-2E02-4A4E-B4F1-07A81780082D}"/>
   <bookViews>
     <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="140">
   <si>
     <t>foldername</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Puja Das</t>
   </si>
   <si>
-    <t>0422062304-Asif-Hossain-Bhuiyan</t>
-  </si>
-  <si>
     <t>0422062304</t>
   </si>
   <si>
@@ -437,6 +434,12 @@
   </si>
   <si>
     <t>BPGS Approved Proposal and BoE</t>
+  </si>
+  <si>
+    <t>A-0422062304-Asif-Hossain-Bhuiyan</t>
+  </si>
+  <si>
+    <t>Graduated with MSc (May 2025)</t>
   </si>
 </sst>
 </file>
@@ -805,7 +808,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -848,13 +851,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -874,10 +877,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -886,13 +889,13 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -903,28 +906,28 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
         <v>123</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>124</v>
-      </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -941,10 +944,10 @@
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -953,30 +956,30 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" t="s">
         <v>13</v>
@@ -985,33 +988,33 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -1023,30 +1026,27 @@
         <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K6" t="s">
-        <v>137</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -1055,30 +1055,30 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -1090,27 +1090,27 @@
         <v>126</v>
       </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -1119,30 +1119,30 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -1151,30 +1151,30 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -1183,30 +1183,30 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -1215,30 +1215,30 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -1250,27 +1250,27 @@
         <v>127</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" t="s">
         <v>53</v>
       </c>
-      <c r="E14" t="s">
-        <v>54</v>
-      </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1279,30 +1279,30 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1311,30 +1311,30 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
@@ -1343,30 +1343,30 @@
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -1375,30 +1375,30 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F18" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
@@ -1407,30 +1407,30 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
@@ -1439,30 +1439,30 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
@@ -1471,30 +1471,30 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
@@ -1503,30 +1503,30 @@
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
@@ -1534,8 +1534,8 @@
       <c r="H22" t="s">
         <v>14</v>
       </c>
-      <c r="I22" t="s">
-        <v>128</v>
+      <c r="I22">
+        <v>2020</v>
       </c>
       <c r="J22" t="s">
         <v>131</v>
@@ -1546,357 +1546,363 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>2006022</v>
       </c>
       <c r="D23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="I23">
         <v>2020</v>
       </c>
       <c r="J23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C24">
-        <v>2006022</v>
+        <v>2006008</v>
       </c>
       <c r="D24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" t="s">
         <v>86</v>
       </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>87</v>
-      </c>
-      <c r="H24" t="s">
-        <v>88</v>
       </c>
       <c r="I24">
         <v>2020</v>
       </c>
       <c r="J24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C25">
-        <v>2006008</v>
+        <v>2006175</v>
       </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G25" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" t="s">
         <v>87</v>
-      </c>
-      <c r="H25" t="s">
-        <v>88</v>
       </c>
       <c r="I25">
         <v>2020</v>
       </c>
       <c r="J25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C26">
-        <v>2006175</v>
+        <v>2006192</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" t="s">
         <v>87</v>
-      </c>
-      <c r="H26" t="s">
-        <v>88</v>
       </c>
       <c r="I26">
         <v>2020</v>
       </c>
       <c r="J26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C27">
-        <v>2006192</v>
+        <v>2006173</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G27" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" t="s">
         <v>87</v>
-      </c>
-      <c r="H27" t="s">
-        <v>88</v>
       </c>
       <c r="I27">
         <v>2020</v>
       </c>
       <c r="J27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C28">
-        <v>2006173</v>
+        <v>2006095</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
         <v>87</v>
-      </c>
-      <c r="H28" t="s">
-        <v>88</v>
       </c>
       <c r="I28">
         <v>2020</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C29">
-        <v>2006095</v>
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>99</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="G29" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H29" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29">
-        <v>2020</v>
+        <v>102</v>
+      </c>
+      <c r="I29" t="s">
+        <v>123</v>
       </c>
       <c r="J29" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s">
         <v>135</v>
       </c>
+      <c r="L29">
+        <v>2025</v>
+      </c>
+      <c r="M29" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D30" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" t="s">
         <v>102</v>
       </c>
-      <c r="H30" t="s">
-        <v>103</v>
-      </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L30">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="M30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="H31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I31" t="s">
         <v>124</v>
       </c>
       <c r="J31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L31">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="M31" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>22</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L32">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33" t="s">
         <v>115</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>116</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G33" t="s">
         <v>117</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>118</v>
-      </c>
-      <c r="H33" t="s">
-        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/_pythonscripts/all-members.xlsx
+++ b/_pythonscripts/all-members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7A389D8-2E02-4A4E-B4F1-07A81780082D}"/>
+  <xr:revisionPtr revIDLastSave="122" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B0A243-280C-408A-B675-E0641927BB21}"/>
   <bookViews>
     <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="145">
   <si>
     <t>foldername</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Masters Student</t>
   </si>
   <si>
-    <t>Grad Students</t>
-  </si>
-  <si>
     <t>0421062344-Ayon-Sarker</t>
   </si>
   <si>
@@ -440,6 +437,24 @@
   </si>
   <si>
     <t>Graduated with MSc (May 2025)</t>
+  </si>
+  <si>
+    <t>1024064011-Mir-Md-Aminuzzaman</t>
+  </si>
+  <si>
+    <t>Mir Md. Aminuzzaman</t>
+  </si>
+  <si>
+    <t>Ph.D. Student</t>
+  </si>
+  <si>
+    <t>Ph.D.</t>
+  </si>
+  <si>
+    <t>MSc Students</t>
+  </si>
+  <si>
+    <t>PhD Students</t>
   </si>
 </sst>
 </file>
@@ -802,13 +817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M33"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -851,13 +866,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -877,1032 +892,1064 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I3" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M3" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>123</v>
-      </c>
-      <c r="J3" t="s">
-        <v>130</v>
-      </c>
-      <c r="K3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J5" t="s">
+        <v>129</v>
+      </c>
+      <c r="K5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" t="s">
-        <v>136</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>35</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>36</v>
       </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
-      <c r="D9" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
         <v>41</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
       <c r="E11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
       <c r="E12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>51</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>53</v>
       </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>56</v>
       </c>
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
         <v>58</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" t="s">
-        <v>60</v>
-      </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
         <v>62</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>63</v>
       </c>
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
       <c r="E16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
         <v>66</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>67</v>
       </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" t="s">
         <v>69</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>70</v>
       </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19" t="s">
-        <v>74</v>
-      </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
         <v>78</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>79</v>
       </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="I21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>82</v>
       </c>
-      <c r="D22" t="s">
-        <v>83</v>
-      </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22">
-        <v>2020</v>
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
       </c>
       <c r="J22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="C23">
-        <v>2006022</v>
+        <v>1024064011</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>118</v>
       </c>
       <c r="G23" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="H23" t="s">
-        <v>87</v>
-      </c>
-      <c r="I23">
-        <v>2020</v>
+        <v>144</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
       </c>
       <c r="J23" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K23" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C24">
-        <v>2006008</v>
+        <v>2006022</v>
       </c>
       <c r="D24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
         <v>86</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
       </c>
       <c r="I24">
         <v>2020</v>
       </c>
       <c r="J24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C25">
-        <v>2006175</v>
+        <v>2006008</v>
       </c>
       <c r="D25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E25" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s">
         <v>86</v>
-      </c>
-      <c r="H25" t="s">
-        <v>87</v>
       </c>
       <c r="I25">
         <v>2020</v>
       </c>
       <c r="J25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C26">
-        <v>2006192</v>
+        <v>2006175</v>
       </c>
       <c r="D26" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
         <v>86</v>
-      </c>
-      <c r="H26" t="s">
-        <v>87</v>
       </c>
       <c r="I26">
         <v>2020</v>
       </c>
       <c r="J26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C27">
-        <v>2006173</v>
+        <v>2006192</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
         <v>86</v>
-      </c>
-      <c r="H27" t="s">
-        <v>87</v>
       </c>
       <c r="I27">
         <v>2020</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C28">
-        <v>2006095</v>
+        <v>2006173</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
         <v>86</v>
-      </c>
-      <c r="H28" t="s">
-        <v>87</v>
       </c>
       <c r="I28">
         <v>2020</v>
       </c>
       <c r="J28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>98</v>
-      </c>
-      <c r="C29" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="C29">
+        <v>2006095</v>
       </c>
       <c r="D29" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="F29" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="G29" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H29" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" t="s">
-        <v>123</v>
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>2020</v>
       </c>
       <c r="J29" t="s">
         <v>130</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
-      </c>
-      <c r="L29">
-        <v>2025</v>
-      </c>
-      <c r="M29" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C30" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F30" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="H30" t="s">
+        <v>101</v>
+      </c>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" t="s">
+        <v>129</v>
+      </c>
+      <c r="K30" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30">
+        <v>2025</v>
+      </c>
+      <c r="M30" t="s">
         <v>102</v>
-      </c>
-      <c r="I30" t="s">
-        <v>123</v>
-      </c>
-      <c r="J30" t="s">
-        <v>130</v>
-      </c>
-      <c r="K30" t="s">
-        <v>135</v>
-      </c>
-      <c r="L30">
-        <v>2023</v>
-      </c>
-      <c r="M30" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L31">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="M31" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" t="s">
+        <v>123</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32" t="s">
+        <v>134</v>
+      </c>
+      <c r="L32">
+        <v>2024</v>
+      </c>
+      <c r="M32" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="H33" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" t="s">
+        <v>123</v>
+      </c>
+      <c r="J33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33" t="s">
+        <v>134</v>
+      </c>
+      <c r="L33">
+        <v>2025</v>
+      </c>
+      <c r="M33" t="s">
         <v>22</v>
       </c>
-      <c r="E32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" t="s">
-        <v>139</v>
-      </c>
-      <c r="H32" t="s">
-        <v>102</v>
-      </c>
-      <c r="I32" t="s">
-        <v>124</v>
-      </c>
-      <c r="J32" t="s">
-        <v>130</v>
-      </c>
-      <c r="K32" t="s">
-        <v>135</v>
-      </c>
-      <c r="L32">
-        <v>2025</v>
-      </c>
-      <c r="M32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="C34" t="s">
         <v>114</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D34" t="s">
         <v>115</v>
       </c>
-      <c r="D33" t="s">
+      <c r="G34" t="s">
         <v>116</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H34" t="s">
         <v>117</v>
-      </c>
-      <c r="H33" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/_pythonscripts/all-members.xlsx
+++ b/_pythonscripts/all-members.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="122" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77B0A243-280C-408A-B675-E0641927BB21}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B1A7F4-58B8-45E5-AA66-C2664A093AD9}"/>
   <bookViews>
     <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="146">
   <si>
     <t>foldername</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Polarization Insensitive Electrically Reconfigurable Metasurface For Metalensing At Near Infrared Waveband</t>
   </si>
   <si>
-    <t>0422062353-Soikot</t>
-  </si>
-  <si>
     <t>0422062353</t>
   </si>
   <si>
@@ -430,9 +427,6 @@
     <t>CASR Approved Proposal and BoE</t>
   </si>
   <si>
-    <t>BPGS Approved Proposal and BoE</t>
-  </si>
-  <si>
     <t>A-0422062304-Asif-Hossain-Bhuiyan</t>
   </si>
   <si>
@@ -455,6 +449,15 @@
   </si>
   <si>
     <t>PhD Students</t>
+  </si>
+  <si>
+    <t>A-0422062353-Soikot</t>
+  </si>
+  <si>
+    <t>Defended MSc Thesis (June 2025)</t>
+  </si>
+  <si>
+    <t>Thesis Defended</t>
   </si>
 </sst>
 </file>
@@ -820,10 +823,10 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H24" sqref="H24"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -833,6 +836,7 @@
     <col min="3" max="3" width="10.84375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.4609375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3828125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27.84375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.23046875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18.23046875" customWidth="1"/>
@@ -866,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>8</v>
@@ -892,25 +896,25 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -921,28 +925,28 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
@@ -959,947 +963,947 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" t="s">
+        <v>144</v>
+      </c>
+      <c r="H5" t="s">
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M5" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I5" t="s">
-        <v>123</v>
-      </c>
-      <c r="J5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K5" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
       <c r="E7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>34</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>44</v>
       </c>
-      <c r="D11" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
         <v>46</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
       <c r="E12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>52</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
         <v>54</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>55</v>
       </c>
-      <c r="D14" t="s">
-        <v>56</v>
-      </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
         <v>57</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>58</v>
       </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>61</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>62</v>
       </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G16" t="s">
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>66</v>
       </c>
-      <c r="D17" t="s">
-        <v>67</v>
-      </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
       <c r="E18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>71</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>72</v>
       </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G20" t="s">
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
-        <v>79</v>
-      </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G21" t="s">
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
         <v>80</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>81</v>
       </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
       <c r="E22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G22" t="s">
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J22" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C23">
         <v>1024064011</v>
       </c>
       <c r="D23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" t="s">
+        <v>139</v>
+      </c>
+      <c r="H23" t="s">
+        <v>142</v>
+      </c>
+      <c r="I23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J23" t="s">
         <v>140</v>
       </c>
-      <c r="E23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>141</v>
-      </c>
-      <c r="H23" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" t="s">
-        <v>126</v>
-      </c>
-      <c r="J23" t="s">
-        <v>142</v>
-      </c>
       <c r="K23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24">
         <v>2006022</v>
       </c>
       <c r="D24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" t="s">
         <v>84</v>
       </c>
-      <c r="E24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>85</v>
-      </c>
-      <c r="H24" t="s">
-        <v>86</v>
       </c>
       <c r="I24">
         <v>2020</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>2006008</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G25" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" t="s">
         <v>85</v>
-      </c>
-      <c r="H25" t="s">
-        <v>86</v>
       </c>
       <c r="I25">
         <v>2020</v>
       </c>
       <c r="J25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <v>2006175</v>
       </c>
       <c r="D26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" t="s">
         <v>85</v>
-      </c>
-      <c r="H26" t="s">
-        <v>86</v>
       </c>
       <c r="I26">
         <v>2020</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>2006192</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" t="s">
         <v>85</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
       </c>
       <c r="I27">
         <v>2020</v>
       </c>
       <c r="J27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C28">
         <v>2006173</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" t="s">
         <v>85</v>
-      </c>
-      <c r="H28" t="s">
-        <v>86</v>
       </c>
       <c r="I28">
         <v>2020</v>
       </c>
       <c r="J28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C29">
         <v>2006095</v>
       </c>
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G29" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" t="s">
         <v>85</v>
-      </c>
-      <c r="H29" t="s">
-        <v>86</v>
       </c>
       <c r="I29">
         <v>2020</v>
       </c>
       <c r="J29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
         <v>97</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>98</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" t="s">
         <v>99</v>
       </c>
-      <c r="E30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" t="s">
-        <v>119</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>100</v>
       </c>
-      <c r="H30" t="s">
-        <v>101</v>
-      </c>
       <c r="I30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L30">
         <v>2025</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
         <v>103</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>104</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" t="s">
         <v>105</v>
       </c>
-      <c r="E31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" t="s">
-        <v>64</v>
-      </c>
-      <c r="G31" t="s">
-        <v>106</v>
-      </c>
       <c r="H31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L31">
         <v>2023</v>
       </c>
       <c r="M31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
         <v>108</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>109</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G32" t="s">
         <v>110</v>
       </c>
-      <c r="E32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" t="s">
-        <v>111</v>
-      </c>
       <c r="H32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L32">
         <v>2024</v>
       </c>
       <c r="M32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -1908,25 +1912,25 @@
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L33">
         <v>2025</v>
@@ -1937,19 +1941,19 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
         <v>113</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>114</v>
       </c>
-      <c r="D34" t="s">
+      <c r="G34" t="s">
         <v>115</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>116</v>
-      </c>
-      <c r="H34" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/_pythonscripts/all-members.xlsx
+++ b/_pythonscripts/all-members.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a37f0bd66b0f646b/Documents/Website/sajidbuet/sajidbuet.github.io/_pythonscripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="130" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35B1A7F4-58B8-45E5-AA66-C2664A093AD9}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="11_3D01AA1F5550F20E62355476585DCE3A8747F3F0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BD6E8A0-D564-4C9B-A6D7-DC388906CE66}"/>
   <bookViews>
-    <workbookView xWindow="8770" yWindow="-10910" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="147">
   <si>
     <t>foldername</t>
   </si>
@@ -424,9 +424,6 @@
     <t>Thesis Defended and Accepted</t>
   </si>
   <si>
-    <t>CASR Approved Proposal and BoE</t>
-  </si>
-  <si>
     <t>A-0422062304-Asif-Hossain-Bhuiyan</t>
   </si>
   <si>
@@ -454,10 +451,16 @@
     <t>A-0422062353-Soikot</t>
   </si>
   <si>
-    <t>Defended MSc Thesis (June 2025)</t>
-  </si>
-  <si>
     <t>Thesis Defended</t>
+  </si>
+  <si>
+    <t>Efficiency Enhancement of HTL-Free Perovskite/Cadmium-Sulfide Heterojunction Solar Cell Incorporating Light Trapping Structure</t>
+  </si>
+  <si>
+    <t>Graduated with MSc (July 2025)</t>
+  </si>
+  <si>
+    <t>Defended MSc (September 2025)</t>
   </si>
 </sst>
 </file>
@@ -476,6 +479,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -823,28 +827,28 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomRight" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.07421875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4609375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.3828125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.23046875" customWidth="1"/>
-    <col min="11" max="11" width="28.69140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.21875" customWidth="1"/>
+    <col min="11" max="11" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,7 +889,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -905,7 +909,7 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
         <v>121</v>
@@ -917,7 +921,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -934,10 +938,10 @@
         <v>63</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="I3" t="s">
         <v>121</v>
@@ -946,13 +950,16 @@
         <v>128</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="L3">
+        <v>2025</v>
       </c>
       <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -969,10 +976,10 @@
         <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
         <v>121</v>
@@ -981,12 +988,18 @@
         <v>128</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+        <v>143</v>
+      </c>
+      <c r="L4">
+        <v>2025</v>
+      </c>
+      <c r="M4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
@@ -1001,7 +1014,7 @@
         <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
         <v>100</v>
@@ -1013,13 +1026,16 @@
         <v>128</v>
       </c>
       <c r="K5" t="s">
-        <v>145</v>
+        <v>133</v>
+      </c>
+      <c r="L5">
+        <v>2025</v>
       </c>
       <c r="M5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1039,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
         <v>123</v>
@@ -1051,7 +1067,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1071,7 +1087,7 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
         <v>123</v>
@@ -1083,7 +1099,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1103,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
         <v>124</v>
@@ -1115,7 +1131,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
@@ -1135,7 +1151,7 @@
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
         <v>124</v>
@@ -1147,7 +1163,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1167,7 +1183,7 @@
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
         <v>124</v>
@@ -1179,7 +1195,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1199,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
         <v>124</v>
@@ -1211,7 +1227,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -1231,7 +1247,7 @@
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
         <v>124</v>
@@ -1243,7 +1259,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -1263,7 +1279,7 @@
         <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
         <v>125</v>
@@ -1275,7 +1291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1295,7 +1311,7 @@
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
         <v>125</v>
@@ -1307,7 +1323,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -1327,7 +1343,7 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
         <v>125</v>
@@ -1339,7 +1355,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -1359,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
         <v>125</v>
@@ -1371,7 +1387,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -1391,7 +1407,7 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
         <v>125</v>
@@ -1403,7 +1419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>67</v>
       </c>
@@ -1423,7 +1439,7 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
         <v>125</v>
@@ -1435,7 +1451,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>70</v>
       </c>
@@ -1455,7 +1471,7 @@
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
         <v>125</v>
@@ -1467,7 +1483,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -1487,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
         <v>125</v>
@@ -1499,7 +1515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1519,7 +1535,7 @@
         <v>13</v>
       </c>
       <c r="H21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
         <v>125</v>
@@ -1531,7 +1547,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -1551,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="H22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
         <v>125</v>
@@ -1563,15 +1579,15 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23">
         <v>1024064011</v>
       </c>
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E23" t="s">
         <v>59</v>
@@ -1580,22 +1596,22 @@
         <v>117</v>
       </c>
       <c r="G23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I23" t="s">
         <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -1627,7 +1643,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -1659,7 +1675,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>88</v>
       </c>
@@ -1691,7 +1707,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>90</v>
       </c>
@@ -1723,7 +1739,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -1755,7 +1771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -1787,7 +1803,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -1825,7 +1841,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>102</v>
       </c>
@@ -1863,7 +1879,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -1901,9 +1917,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" t="s">
         <v>20</v>
@@ -1918,7 +1934,7 @@
         <v>63</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H33" t="s">
         <v>100</v>
@@ -1939,7 +1955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>112</v>
       </c>
@@ -1958,5 +1974,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>